--- a/assignment4/HeatForOMP/Thread_Affinity/KMP_results.xlsx
+++ b/assignment4/HeatForOMP/Thread_Affinity/KMP_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/734b88e09210c75b/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment4\HeatForOMP\Thread_Affinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="401" documentId="8_{02AF128C-B6E5-4477-9BF9-7D181EA5D3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244CB470-23DE-43B7-8E5B-9602BADFD14F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AED999-4831-4A20-A48A-80BEF8B0ADDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{896928AA-22C5-4A85-AB0D-4E782E40DBA7}"/>
   </bookViews>
@@ -91,14 +91,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,7 +130,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Thread Affinity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -347,7 +407,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -585,7 +644,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -673,7 +732,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance - Thread Affinity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1127,7 +1241,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2705,18 +2819,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2765,8 +2879,8 @@
         <f>$E$3/E3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2792,8 +2906,8 @@
         <f t="shared" ref="G4:G11" si="1">$E$3/E4</f>
         <v>1.5973997050427906</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2819,8 +2933,8 @@
         <f t="shared" si="1"/>
         <v>3.0301757893001406</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2846,8 +2960,8 @@
         <f t="shared" si="1"/>
         <v>4.9717659788498443</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2873,8 +2987,8 @@
         <f t="shared" si="1"/>
         <v>6.4451774452486754</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2900,8 +3014,8 @@
         <f t="shared" si="1"/>
         <v>6.8137399716164158</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2927,8 +3041,8 @@
         <f t="shared" si="1"/>
         <v>7.1147146347954422</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2954,8 +3068,8 @@
         <f t="shared" si="1"/>
         <v>7.1923227431702008</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2981,28 +3095,28 @@
         <f t="shared" si="1"/>
         <v>6.7223870020173626</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="K15" s="1" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="K15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="P15" s="1" t="s">
+      <c r="L15" s="5"/>
+      <c r="P15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3069,18 +3183,18 @@
         <f>$E$17/E17</f>
         <v>1</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>1</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f>$B$17/B17</f>
         <v>1</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <f>$E$17/E17</f>
         <v>1</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <v>1</v>
       </c>
       <c r="P17">
@@ -3114,18 +3228,18 @@
         <f t="shared" ref="G18:G25" si="3">$E$17/E18</f>
         <v>1.5972357579516256</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" ref="K18:K25" si="4">$B$17/B18</f>
         <v>1.0965501163327445</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <f t="shared" ref="L18:L25" si="5">$E$17/E18</f>
         <v>1.5972357579516256</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <v>2</v>
       </c>
       <c r="P18">
@@ -3159,18 +3273,18 @@
         <f t="shared" si="3"/>
         <v>2.9912760325521948</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>4</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="4"/>
         <v>2.1008182516570493</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <f t="shared" si="5"/>
         <v>2.9912760325521948</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <v>4</v>
       </c>
       <c r="P19">
@@ -3204,18 +3318,18 @@
         <f t="shared" si="3"/>
         <v>4.8866921633652245</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>8</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="4"/>
         <v>3.673075361250461</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <f t="shared" si="5"/>
         <v>4.8866921633652245</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="4">
         <v>8</v>
       </c>
       <c r="P20">
@@ -3249,18 +3363,18 @@
         <f t="shared" si="3"/>
         <v>6.1873153257506281</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>12</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="4"/>
         <v>4.4313714406307003</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <f t="shared" si="5"/>
         <v>6.1873153257506281</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>12</v>
       </c>
       <c r="P21">
@@ -3294,18 +3408,18 @@
         <f t="shared" si="3"/>
         <v>6.6041543841975416</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>16</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="4"/>
         <v>4.952767446856007</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <f t="shared" si="5"/>
         <v>6.6041543841975416</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <v>16</v>
       </c>
       <c r="P22">
@@ -3339,18 +3453,18 @@
         <f t="shared" si="3"/>
         <v>6.6732910345465797</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>24</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="4"/>
         <v>5.5474930178140101</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <f t="shared" si="5"/>
         <v>6.6732910345465797</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="4">
         <v>24</v>
       </c>
       <c r="P23">
@@ -3384,18 +3498,18 @@
         <f t="shared" si="3"/>
         <v>7.1949663571566651</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>32</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" si="4"/>
         <v>6.0591387599255935</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <f t="shared" si="5"/>
         <v>7.1949663571566651</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="4">
         <v>32</v>
       </c>
       <c r="P24">
@@ -3429,18 +3543,18 @@
         <f t="shared" si="3"/>
         <v>6.577386585185101</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>48</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="4"/>
         <v>5.6003343366608247</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <f t="shared" si="5"/>
         <v>6.577386585185101</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="4">
         <v>48</v>
       </c>
       <c r="P25">
@@ -3451,16 +3565,16 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3675,17 +3789,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3936,17 +4050,17 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4128,7 +4242,7 @@
       <c r="B23">
         <v>0.21573400000000001</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>27418</v>
       </c>
       <c r="D23">
@@ -4197,16 +4311,16 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">

--- a/assignment4/HeatForOMP/Thread_Affinity/KMP_results.xlsx
+++ b/assignment4/HeatForOMP/Thread_Affinity/KMP_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment4\HeatForOMP\Thread_Affinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AED999-4831-4A20-A48A-80BEF8B0ADDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA07EB0-AD53-4AAA-BCFB-A9E81691EB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{896928AA-22C5-4A85-AB0D-4E782E40DBA7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="6">
   <si>
     <t>Threads</t>
   </si>
@@ -265,31 +265,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.98117730531533043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0965501163327445</c:v>
+                  <c:v>1.0800919606698223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1008182516570493</c:v>
+                  <c:v>2.08948298437639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.673075361250461</c:v>
+                  <c:v>3.8608709950202011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4313714406307003</c:v>
+                  <c:v>4.8228560170688661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.952767446856007</c:v>
+                  <c:v>5.4533325117782558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5474930178140101</c:v>
+                  <c:v>6.0070849409762284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0591387599255935</c:v>
+                  <c:v>6.10005089760039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6003343366608247</c:v>
+                  <c:v>5.9081899362736792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,31 +370,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.98071230149090116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5972357579516256</c:v>
+                  <c:v>1.9774932325011816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9912760325521948</c:v>
+                  <c:v>3.8057144180231077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8866921633652245</c:v>
+                  <c:v>7.4212118475708868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1873153257506281</c:v>
+                  <c:v>9.3308165797562186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6041543841975416</c:v>
+                  <c:v>9.9917065418450548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6732910345465797</c:v>
+                  <c:v>10.775004682524818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1949663571566651</c:v>
+                  <c:v>10.897574328228151</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.577386585185101</c:v>
+                  <c:v>9.4921665525406116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,31 +862,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5030.2</c:v>
+                  <c:v>5044.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5515.9</c:v>
+                  <c:v>5552.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10567.6</c:v>
+                  <c:v>10742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18476.400000000001</c:v>
+                  <c:v>19848.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22290.799999999999</c:v>
+                  <c:v>24794.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24913.5</c:v>
+                  <c:v>28035.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27905.1</c:v>
+                  <c:v>30882.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30478.9</c:v>
+                  <c:v>31360.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28170.9</c:v>
+                  <c:v>30374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,31 +967,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5126.6000000000004</c:v>
+                  <c:v>5041.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8188.3</c:v>
+                  <c:v>10166.299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15335</c:v>
+                  <c:v>19565.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25052</c:v>
+                  <c:v>38152.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31719.7</c:v>
+                  <c:v>47969.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33856.699999999997</c:v>
+                  <c:v>51367.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34211.1</c:v>
+                  <c:v>55394.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36885.5</c:v>
+                  <c:v>56024.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33719.4</c:v>
+                  <c:v>48799.199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2431,16 +2431,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885823</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38098</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2467,16 +2467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2801,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D8C8FE-E73A-4A64-A59A-2C6E2EE7029C}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16:Q25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,6 +3098,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1.150555</v>
+      </c>
+    </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3187,21 +3192,19 @@
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <f>$B$17/B17</f>
-        <v>1</v>
+        <v>0.98117730531533043</v>
       </c>
       <c r="L17" s="3">
-        <f>$E$17/E17</f>
-        <v>1</v>
+        <v>0.98071230149090116</v>
       </c>
       <c r="O17" s="4">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>5030.2</v>
+        <v>5044.2</v>
       </c>
       <c r="Q17">
-        <v>5126.6000000000004</v>
+        <v>5041.8</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -3232,21 +3235,19 @@
         <v>2</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" ref="K18:K25" si="4">$B$17/B18</f>
-        <v>1.0965501163327445</v>
+        <v>1.0800919606698223</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" ref="L18:L25" si="5">$E$17/E18</f>
-        <v>1.5972357579516256</v>
+        <v>1.9774932325011816</v>
       </c>
       <c r="O18" s="4">
         <v>2</v>
       </c>
       <c r="P18">
-        <v>5515.9</v>
+        <v>5552.7</v>
       </c>
       <c r="Q18">
-        <v>8188.3</v>
+        <v>10166.299999999999</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -3277,21 +3278,19 @@
         <v>4</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="4"/>
-        <v>2.1008182516570493</v>
+        <v>2.08948298437639</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="5"/>
-        <v>2.9912760325521948</v>
+        <v>3.8057144180231077</v>
       </c>
       <c r="O19" s="4">
         <v>4</v>
       </c>
       <c r="P19">
-        <v>10567.6</v>
+        <v>10742</v>
       </c>
       <c r="Q19">
-        <v>15335</v>
+        <v>19565.2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -3322,21 +3321,19 @@
         <v>8</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="4"/>
-        <v>3.673075361250461</v>
+        <v>3.8608709950202011</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="5"/>
-        <v>4.8866921633652245</v>
+        <v>7.4212118475708868</v>
       </c>
       <c r="O20" s="4">
         <v>8</v>
       </c>
       <c r="P20">
-        <v>18476.400000000001</v>
+        <v>19848.7</v>
       </c>
       <c r="Q20">
-        <v>25052</v>
+        <v>38152.400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -3367,21 +3364,19 @@
         <v>12</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="4"/>
-        <v>4.4313714406307003</v>
+        <v>4.8228560170688661</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="5"/>
-        <v>6.1873153257506281</v>
+        <v>9.3308165797562186</v>
       </c>
       <c r="O21" s="4">
         <v>12</v>
       </c>
       <c r="P21">
-        <v>22290.799999999999</v>
+        <v>24794.3</v>
       </c>
       <c r="Q21">
-        <v>31719.7</v>
+        <v>47969.7</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -3412,21 +3407,19 @@
         <v>16</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="4"/>
-        <v>4.952767446856007</v>
+        <v>5.4533325117782558</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="5"/>
-        <v>6.6041543841975416</v>
+        <v>9.9917065418450548</v>
       </c>
       <c r="O22" s="4">
         <v>16</v>
       </c>
       <c r="P22">
-        <v>24913.5</v>
+        <v>28035.599999999999</v>
       </c>
       <c r="Q22">
-        <v>33856.699999999997</v>
+        <v>51367.4</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -3457,21 +3450,19 @@
         <v>24</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="4"/>
-        <v>5.5474930178140101</v>
+        <v>6.0070849409762284</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="5"/>
-        <v>6.6732910345465797</v>
+        <v>10.775004682524818</v>
       </c>
       <c r="O23" s="4">
         <v>24</v>
       </c>
       <c r="P23">
-        <v>27905.1</v>
+        <v>30882.400000000001</v>
       </c>
       <c r="Q23">
-        <v>34211.1</v>
+        <v>55394.400000000001</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -3502,21 +3493,19 @@
         <v>32</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="4"/>
-        <v>6.0591387599255935</v>
+        <v>6.10005089760039</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="5"/>
-        <v>7.1949663571566651</v>
+        <v>10.897574328228151</v>
       </c>
       <c r="O24" s="4">
         <v>32</v>
       </c>
       <c r="P24">
-        <v>30478.9</v>
+        <v>31360.400000000001</v>
       </c>
       <c r="Q24">
-        <v>36885.5</v>
+        <v>56024.3</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -3547,21 +3536,19 @@
         <v>48</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="4"/>
-        <v>5.6003343366608247</v>
+        <v>5.9081899362736792</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="5"/>
-        <v>6.577386585185101</v>
+        <v>9.4921665525406116</v>
       </c>
       <c r="O25" s="4">
         <v>48</v>
       </c>
       <c r="P25">
-        <v>28170.9</v>
+        <v>30374</v>
       </c>
       <c r="Q25">
-        <v>33719.4</v>
+        <v>48799.199999999997</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -3599,7 +3586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3616,7 +3603,7 @@
         <v>5143.2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3633,7 +3620,7 @@
         <v>8281.4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3650,7 +3637,7 @@
         <v>15341.1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -3667,7 +3654,7 @@
         <v>25175.7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -3684,7 +3671,7 @@
         <v>32511.8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -3701,7 +3688,7 @@
         <v>34523</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -3718,7 +3705,7 @@
         <v>36158.800000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -3735,7 +3722,7 @@
         <v>35779.1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>48</v>
       </c>
@@ -3752,8 +3739,270 @@
         <v>33771.699999999997</v>
       </c>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1.1726270000000001</v>
+      </c>
+      <c r="C47">
+        <v>5044.2</v>
+      </c>
+      <c r="D47">
+        <f>$K$12/B47</f>
+        <v>0.98117730531533043</v>
+      </c>
+      <c r="E47">
+        <v>1.1731830000000001</v>
+      </c>
+      <c r="F47">
+        <v>5041.8</v>
+      </c>
+      <c r="G47">
+        <f>$K$12/E47</f>
+        <v>0.98071230149090116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>1.0652379999999999</v>
+      </c>
+      <c r="C48">
+        <v>5552.7</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:D54" si="4">$K$12/B48</f>
+        <v>1.0800919606698223</v>
+      </c>
+      <c r="E48">
+        <v>0.58182500000000004</v>
+      </c>
+      <c r="F48">
+        <v>10166.299999999999</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:G55" si="5">$K$12/E48</f>
+        <v>1.9774932325011816</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>0.55064100000000005</v>
+      </c>
+      <c r="C49">
+        <v>10742</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>2.08948298437639</v>
+      </c>
+      <c r="E49">
+        <v>0.30232300000000001</v>
+      </c>
+      <c r="F49">
+        <v>19565.2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>3.8057144180231077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>0.29800399999999999</v>
+      </c>
+      <c r="C50">
+        <v>19848.7</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>3.8608709950202011</v>
+      </c>
+      <c r="E50">
+        <v>0.15503600000000001</v>
+      </c>
+      <c r="F50">
+        <v>38152.400000000001</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>7.4212118475708868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>0.238563</v>
+      </c>
+      <c r="C51">
+        <v>24794.3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>4.8228560170688661</v>
+      </c>
+      <c r="E51">
+        <v>0.123307</v>
+      </c>
+      <c r="F51">
+        <v>47969.7</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>9.3308165797562186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>0.210982</v>
+      </c>
+      <c r="C52">
+        <v>28035.599999999999</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>5.4533325117782558</v>
+      </c>
+      <c r="E52">
+        <v>0.115151</v>
+      </c>
+      <c r="F52">
+        <v>51367.4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>9.9917065418450548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <v>0.19153300000000001</v>
+      </c>
+      <c r="C53">
+        <v>30882.400000000001</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>6.0070849409762284</v>
+      </c>
+      <c r="E53">
+        <v>0.10678</v>
+      </c>
+      <c r="F53">
+        <v>55394.400000000001</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>10.775004682524818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>0.188614</v>
+      </c>
+      <c r="C54">
+        <v>31360.400000000001</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>6.10005089760039</v>
+      </c>
+      <c r="E54">
+        <v>0.10557900000000001</v>
+      </c>
+      <c r="F54">
+        <v>56024.3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>10.897574328228151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55">
+        <v>0.194739</v>
+      </c>
+      <c r="C55">
+        <v>30374</v>
+      </c>
+      <c r="D55">
+        <f>$K$12/B55</f>
+        <v>5.9081899362736792</v>
+      </c>
+      <c r="E55">
+        <v>0.121211</v>
+      </c>
+      <c r="F55">
+        <v>48799.199999999997</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>9.4921665525406116</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:G31"/>
